--- a/va_facility_data_2025-02-20/Jennifer Moreno Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jennifer%20Moreno%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jennifer Moreno Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jennifer%20Moreno%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R206f233b142d4ffdac94575a5152361b"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra16e5fbb7cc74972b386e79a319a6d5c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R975a9f9737db45019edd8f8364d5d23e"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R384be2e82a4f49b09d46a1c0b2995742"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7cee8a2e5f2b4d2398277ee5aa245df5"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R44ae859f3c8441d49dad5eccb4a0a652"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rfc13dcc6b93e4f299c3d11a247ab00bc"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R570185d2003e439aa331bb6d038aafbc"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R702c7594e9de4b34a36ef7347ef56af5"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Ra425882f74a24ecab5d1b2a8720d20c2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Reb9270e83cfe405fb38614a05aefaa50"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re3d8923963f3440eba1cd94e38158ca8"/>
   </x:sheets>
 </x:workbook>
 </file>
